--- a/invoices/files/invoices.xlsx
+++ b/invoices/files/invoices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/fatture-in-serie-OF/excel-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E2E319-A5EB-9848-BC7C-9AE8F1514EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2C3FAC-C84E-415E-BBC1-4FF984395F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36120" yWindow="-2920" windowWidth="42140" windowHeight="18880" xr2:uid="{B9EBCC79-E041-AE47-BCCF-F078F3053AD3}"/>
+    <workbookView xWindow="5160" yWindow="2760" windowWidth="20190" windowHeight="11160" xr2:uid="{B9EBCC79-E041-AE47-BCCF-F078F3053AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>InvoiceNumber</t>
   </si>
@@ -44,39 +44,15 @@
     <t>InvoiceDate</t>
   </si>
   <si>
-    <t>InvoiceDueDate</t>
-  </si>
-  <si>
     <t>InvoiceDescription</t>
   </si>
   <si>
-    <t>InvoiceDiscount</t>
-  </si>
-  <si>
-    <t>InvoiceVatTotal</t>
-  </si>
-  <si>
-    <t>InvoiceTotalToPay</t>
-  </si>
-  <si>
     <t>InvoiceCurrency</t>
   </si>
   <si>
-    <t>InvoiceRoundingTotal</t>
-  </si>
-  <si>
-    <t>InvoiceAmountType</t>
-  </si>
-  <si>
     <t>CustomerNumber</t>
   </si>
   <si>
-    <t>CustomerName</t>
-  </si>
-  <si>
-    <t>ItemNumber</t>
-  </si>
-  <si>
     <t>ItemDescription</t>
   </si>
   <si>
@@ -87,21 +63,6 @@
   </si>
   <si>
     <t>ItemUnit</t>
-  </si>
-  <si>
-    <t>ItemVatRate</t>
-  </si>
-  <si>
-    <t>ItemVatCode</t>
-  </si>
-  <si>
-    <t>ItemDiscount</t>
-  </si>
-  <si>
-    <t>ItemTotal</t>
-  </si>
-  <si>
-    <t>ItemVatTotal</t>
   </si>
   <si>
     <t>Quota sociale</t>
@@ -523,278 +484,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A95884-7834-494C-993F-50BCFB44F9E8}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="2"/>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5" style="3"/>
-    <col min="7" max="7" width="15.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1"/>
-    <col min="9" max="9" width="18" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="9" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="13.5" style="1"/>
+    <col min="5" max="5" width="13.5" style="1"/>
+    <col min="6" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="13.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="C6" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45363</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45394</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3">
-        <v>60</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3">
-        <v>60</v>
-      </c>
-      <c r="U2" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45363</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45394</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="3">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3">
-        <v>60</v>
-      </c>
-      <c r="U3" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45363</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45394</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3">
-        <v>60</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3">
-        <v>60</v>
-      </c>
-      <c r="U4" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45363</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45394</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3">
-        <v>120</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3">
-        <v>60</v>
-      </c>
-      <c r="U5" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45363</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45394</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3">
-        <v>120</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3">
-        <v>60</v>
-      </c>
-      <c r="U6" s="3">
+      <c r="I6" s="3">
         <v>60</v>
       </c>
     </row>
